--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1365</v>
+        <v>16.1946</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.944199999999999</v>
+        <v>-6.7544</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.46080000000001</v>
+        <v>16.51090000000001</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.50369999999999</v>
+        <v>16.54749999999999</v>
       </c>
     </row>
     <row r="27">
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.404700000000004</v>
+        <v>-8.420700000000004</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.5579</v>
+        <v>16.5928</v>
       </c>
     </row>
     <row r="32">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.776099999999998</v>
+        <v>-8.584199999999994</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.70760000000001</v>
+        <v>16.80089999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.949400000000001</v>
+        <v>-8.026499999999999</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.65250000000001</v>
+        <v>16.7296</v>
       </c>
     </row>
     <row r="38">
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.8167</v>
+        <v>-7.780799999999996</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.38889999999999</v>
+        <v>16.5239</v>
       </c>
     </row>
     <row r="46">
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.344299999999997</v>
+        <v>-8.381599999999999</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.14520000000001</v>
+        <v>17.23350000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.258500000000005</v>
+        <v>-8.348300000000002</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.380299999999995</v>
+        <v>-8.294299999999994</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.366799999999996</v>
+        <v>-8.072499999999996</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.5726</v>
+        <v>16.6046</v>
       </c>
     </row>
     <row r="58">
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.499899999999994</v>
+        <v>-6.344099999999997</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.157599999999997</v>
+        <v>-7.072699999999995</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.436400000000001</v>
+        <v>-7.346799999999999</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.1725</v>
+        <v>16.0537</v>
       </c>
     </row>
     <row r="82">
@@ -1848,10 +1848,10 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.029400000000001</v>
+        <v>-8.962600000000002</v>
       </c>
       <c r="E83" t="n">
-        <v>16.48719999999999</v>
+        <v>16.5193</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.594699999999994</v>
+        <v>-7.618599999999994</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.552199999999996</v>
+        <v>-6.691199999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.449699999999996</v>
+        <v>-6.6146</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.515999999999999</v>
+        <v>-7.514100000000003</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.5299</v>
+        <v>16.4224</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.87339999999999</v>
+        <v>16.7993</v>
       </c>
     </row>
   </sheetData>
